--- a/data/trans_bre/CONS_HIP-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/CONS_HIP-Estudios-trans_bre.xlsx
@@ -556,42 +556,42 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
         </is>
       </c>
     </row>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>11,45</t>
+          <t>12,92</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>14,75</t>
+          <t>11,75</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>10,78</t>
+          <t>10,92</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>10,75</t>
+          <t>15,13</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>115,18%</t>
+          <t>129,43%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>96,41%</t>
+          <t>108,25%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>90,68%</t>
+          <t>125,76%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>148,28%</t>
+          <t>98,3%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>7,65; 15,53</t>
+          <t>8,4; 17,36</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,86; 25,35</t>
+          <t>6,82; 16,67</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>7,29; 14,15</t>
+          <t>6,95; 14,83</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>7,91; 13,65</t>
+          <t>2,74; 25,23</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>61,88; 188,99</t>
+          <t>66,72; 212,88</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>15,55; 252,88</t>
+          <t>45,64; 196,89</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>53,35; 136,78</t>
+          <t>61,59; 212,68</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>89,51; 229,34</t>
+          <t>9,06; 250,19</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>5,07</t>
+          <t>4,15</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
+          <t>3,31</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>4,57</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>5,71</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>3,46</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>4,4</t>
-        </is>
-      </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>106,06%</t>
+          <t>69,17%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>69,84%</t>
+          <t>94,56%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>86,81%</t>
+          <t>106,36%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>81,41%</t>
+          <t>69,66%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,28; 7,15</t>
+          <t>2,61; 5,74</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,37; 9,14</t>
+          <t>0,36; 5,91</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,95; 4,95</t>
+          <t>2,77; 6,36</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,0; 5,66</t>
+          <t>2,27; 8,83</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>57,34; 172,42</t>
+          <t>38,37; 108,02</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>22,11; 132,58</t>
+          <t>15,76; 245,5</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>44,39; 146,34</t>
+          <t>52,14; 177,55</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>49,65; 114,82</t>
+          <t>23,1; 135,13</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,87</t>
+          <t>1,26</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
+          <t>1,5</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>1,53</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>4,17</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>1,74</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>1,36</t>
-        </is>
-      </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>49,29%</t>
+          <t>46,66%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
+          <t>33,21%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>45,68%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
           <t>79,73%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>43,72%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>48,62%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,18; 4,15</t>
+          <t>-0,22; 2,7</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,36; 7,26</t>
+          <t>-1,01; 4,22</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,3; 3,98</t>
+          <t>-0,94; 3,62</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,13; 2,78</t>
+          <t>1,31; 7,25</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-5,0; 145,94</t>
+          <t>-7,45; 135,19</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>18,19; 174,79</t>
+          <t>-17,96; 135,18</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-8,83; 134,49</t>
+          <t>-21,72; 155,72</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-4,5; 134,54</t>
+          <t>17,83; 177,73</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>5,86</t>
+          <t>4,93</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>6,55</t>
+          <t>4,94</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>5,21</t>
+          <t>4,99</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>4,94</t>
+          <t>6,58</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>105,47%</t>
+          <t>85,3%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>79,44%</t>
+          <t>109,06%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>99,2%</t>
+          <t>106,04%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>94,69%</t>
+          <t>79,65%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,45; 7,29</t>
+          <t>3,65; 6,07</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,84; 9,04</t>
+          <t>2,09; 7,23</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,89; 6,55</t>
+          <t>3,68; 6,3</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,85; 5,94</t>
+          <t>3,87; 9,17</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>70,35; 143,05</t>
+          <t>56,98; 116,31</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>40,72; 127,95</t>
+          <t>46,6; 210,54</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>68,56; 138,32</t>
+          <t>67,69; 148,19</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>65,08; 123,43</t>
+          <t>37,16; 127,43</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/CONS_HIP-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/CONS_HIP-Estudios-trans_bre.xlsx
@@ -620,7 +620,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>12,92</t>
+          <t>12,54</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -640,7 +640,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>129,43%</t>
+          <t>121,55%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -668,12 +668,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>8,4; 17,36</t>
+          <t>8,39; 16,41</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>6,82; 16,67</t>
+          <t>6,83; 16,89</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -683,17 +683,17 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,74; 25,23</t>
+          <t>4,34; 26,76</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>66,72; 212,88</t>
+          <t>63,77; 196,62</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>45,64; 196,89</t>
+          <t>45,11; 197,86</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>9,06; 250,19</t>
+          <t>11,91; 270,1</t>
         </is>
       </c>
     </row>
@@ -720,7 +720,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>4,15</t>
+          <t>4,37</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -740,7 +740,7 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>69,17%</t>
+          <t>78,6%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -768,12 +768,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,61; 5,74</t>
+          <t>2,85; 5,84</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,36; 5,91</t>
+          <t>0,32; 5,93</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -783,17 +783,17 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,27; 8,83</t>
+          <t>2,47; 8,62</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>38,37; 108,02</t>
+          <t>44,52; 117,24</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>15,76; 245,5</t>
+          <t>10,11; 241,58</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>23,1; 135,13</t>
+          <t>25,19; 130,74</t>
         </is>
       </c>
     </row>
@@ -820,7 +820,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,26</t>
+          <t>1,07</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -840,7 +840,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>46,66%</t>
+          <t>35,39%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -868,12 +868,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,22; 2,7</t>
+          <t>-0,75; 2,62</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 4,22</t>
+          <t>-1,24; 4,23</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -883,17 +883,17 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,31; 7,25</t>
+          <t>1,16; 7,46</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-7,45; 135,19</t>
+          <t>-19,2; 116,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-17,96; 135,18</t>
+          <t>-22,31; 135,19</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>17,83; 177,73</t>
+          <t>16,81; 191,44</t>
         </is>
       </c>
     </row>
@@ -920,7 +920,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>4,93</t>
+          <t>4,75</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -940,7 +940,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>85,3%</t>
+          <t>86,47%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -968,12 +968,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,65; 6,07</t>
+          <t>3,6; 5,94</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,09; 7,23</t>
+          <t>2,42; 6,98</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -983,17 +983,17 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,87; 9,17</t>
+          <t>3,73; 9,12</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>56,98; 116,31</t>
+          <t>60,07; 119,33</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>46,6; 210,54</t>
+          <t>49,77; 198,75</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>37,16; 127,43</t>
+          <t>39,6; 129,93</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/CONS_HIP-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/CONS_HIP-Estudios-trans_bre.xlsx
@@ -556,42 +556,42 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
         </is>
       </c>
     </row>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>11,22</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>15,13</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>10,92</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>12,54</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>11,75</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>10,92</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>15,13</t>
-        </is>
-      </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>108,71%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>98,3%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>125,76%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
           <t>121,55%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>108,25%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>125,76%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>98,3%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>6,2; 15,62</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>4,34; 26,76</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>6,95; 14,83</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>8,39; 16,41</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>6,83; 16,89</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>6,95; 14,83</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>4,34; 26,76</t>
-        </is>
-      </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
+          <t>44,59; 193,53</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>11,91; 270,1</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>61,59; 212,68</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
           <t>63,77; 196,62</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>45,11; 197,86</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>61,59; 212,68</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>11,91; 270,1</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>3,92</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>5,71</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>4,57</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>4,37</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>3,31</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>4,57</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>5,71</t>
-        </is>
-      </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>90,99%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>69,66%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>106,36%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
           <t>78,6%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>94,56%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>106,36%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>69,66%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>2,21; 5,81</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>2,47; 8,62</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>2,77; 6,36</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>2,85; 5,84</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>0,32; 5,93</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>2,77; 6,36</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>2,47; 8,62</t>
-        </is>
-      </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
+          <t>41,06; 169,36</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>25,19; 130,74</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>52,14; 177,55</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
           <t>44,52; 117,24</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>10,11; 241,58</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>52,14; 177,55</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>25,19; 130,74</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>1,72</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>4,17</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>1,53</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>1,07</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>1,5</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>1,53</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>4,17</t>
-        </is>
-      </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>39,49%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>79,73%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>45,68%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
           <t>35,39%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>33,21%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>45,68%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>79,73%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>-0,91; 4,36</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>1,16; 7,46</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>-0,94; 3,62</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
           <t>-0,75; 2,62</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-1,24; 4,23</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-0,94; 3,62</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>1,16; 7,46</t>
-        </is>
-      </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
+          <t>-17,07; 147,85</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>16,81; 191,44</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-21,72; 155,72</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
           <t>-19,2; 116,0</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-22,31; 135,19</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-21,72; 155,72</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>16,81; 191,44</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>5,29</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>6,58</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>4,99</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>4,75</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>4,94</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>4,99</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>6,58</t>
-        </is>
-      </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
+          <t>104,53%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>79,65%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>106,04%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
           <t>86,47%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>109,06%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>106,04%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>79,65%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>3,83; 6,66</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>3,73; 9,12</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>3,68; 6,3</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
           <t>3,6; 5,94</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>2,42; 6,98</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>3,68; 6,3</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>3,73; 9,12</t>
-        </is>
-      </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
+          <t>63,75; 151,65</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>39,6; 129,93</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>67,69; 148,19</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
           <t>60,07; 119,33</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>49,77; 198,75</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>67,69; 148,19</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>39,6; 129,93</t>
         </is>
       </c>
     </row>
